--- a/data/annotations/new_annotation_structure_out/iteration_11/iteration_11_mistral-large-2411-2.xlsx
+++ b/data/annotations/new_annotation_structure_out/iteration_11/iteration_11_mistral-large-2411-2.xlsx
@@ -973,7 +973,7 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>1</v>
@@ -1363,10 +1363,10 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1753,10 +1753,10 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -2077,10 +2077,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -2533,10 +2533,10 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -2788,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -4036,10 +4036,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4267,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
@@ -4345,7 +4345,7 @@
         <v>1</v>
       </c>
       <c r="Q50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>
@@ -4732,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55" t="n">
         <v>1</v>
@@ -6511,7 +6511,7 @@
         </is>
       </c>
       <c r="K78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -6535,7 +6535,7 @@
         <v>0</v>
       </c>
       <c r="S78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T78" t="n">
         <v>0</v>
@@ -6667,7 +6667,7 @@
         </is>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
@@ -6679,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="O80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P80" t="n">
         <v>0</v>
@@ -6748,7 +6748,7 @@
         <v>1</v>
       </c>
       <c r="L81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M81" t="n">
         <v>0</v>
@@ -7294,7 +7294,7 @@
         <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M88" t="n">
         <v>0</v>
@@ -7315,7 +7315,7 @@
         <v>0</v>
       </c>
       <c r="S88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T88" t="n">
         <v>0</v>
@@ -7390,10 +7390,10 @@
         <v>0</v>
       </c>
       <c r="R89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T89" t="n">
         <v>0</v>
@@ -7459,7 +7459,7 @@
         <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P90" t="n">
         <v>0</v>
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="S90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T90" t="n">
         <v>0</v>
@@ -7780,7 +7780,7 @@
         <v>0</v>
       </c>
       <c r="R94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S94" t="n">
         <v>0</v>
@@ -7996,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M97" t="n">
         <v>0</v>
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="Q97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R97" t="n">
         <v>0</v>
@@ -8074,7 +8074,7 @@
         <v>0</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M98" t="n">
         <v>0</v>
@@ -8083,7 +8083,7 @@
         <v>0</v>
       </c>
       <c r="O98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P98" t="n">
         <v>0</v>
@@ -8161,7 +8161,7 @@
         <v>0</v>
       </c>
       <c r="O99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P99" t="n">
         <v>0</v>
@@ -8170,7 +8170,7 @@
         <v>0</v>
       </c>
       <c r="R99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S99" t="n">
         <v>0</v>
@@ -8248,10 +8248,10 @@
         <v>0</v>
       </c>
       <c r="R100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T100" t="n">
         <v>0</v>
@@ -8305,7 +8305,7 @@
         </is>
       </c>
       <c r="K101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L101" t="n">
         <v>0</v>
@@ -8329,7 +8329,7 @@
         <v>0</v>
       </c>
       <c r="S101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T101" t="n">
         <v>0</v>
